--- a/docs/pictures/sourcing/Nomenclature_KOSMOS4.0_projet_IUEM_29_01_2025.xlsx
+++ b/docs/pictures/sourcing/Nomenclature_KOSMOS4.0_projet_IUEM_29_01_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ofauvarq\Documents\GitHub\DocV4\docs\pictures\sourcing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12778787-4792-477F-8204-FE7F9DD10D06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21348B7-5471-43E6-94A9-4D2BD011969A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="373">
   <si>
     <t>Nomenclature KOSMOS 4.0</t>
   </si>
@@ -1138,13 +1138,13 @@
     <t>Vis fixation Rpi</t>
   </si>
   <si>
-    <t>LED rouge ou verte ?</t>
-  </si>
-  <si>
     <t>https://www.bricovis.fr/produit-vis-a-tete-cylindrique-hexagonale-creuse-inox-a4-filetage-total-din-912-tchca4ef/#TCHC03/010A4EF</t>
   </si>
   <si>
     <t>https://www.bricovis.fr/produit-vis-a-tete-cylindrique-hexagonale-creuse-inox-a4-filetage-total-din-912-tchca4ef/#TCHC02.5/008A4EF</t>
+  </si>
+  <si>
+    <t>Attention empatement à revoir sur le Hat</t>
   </si>
 </sst>
 </file>
@@ -1360,7 +1360,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1442,12 +1442,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,7 +1546,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1784,6 +1778,24 @@
     <xf numFmtId="164" fontId="15" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1793,35 +1805,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -2049,8 +2040,8 @@
   <dimension ref="A1:XFC179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2076,17 +2067,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12 16381:16383" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="10">
         <f ca="1">TODAY()</f>
-        <v>45693</v>
+        <v>45721</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>2</v>
@@ -2135,7 +2126,7 @@
       <c r="XFC3" s="8"/>
     </row>
     <row r="4" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="91" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -2171,7 +2162,7 @@
       <c r="XFC4" s="8"/>
     </row>
     <row r="5" spans="1:12 16381:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="85"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="26" t="s">
         <v>19</v>
       </c>
@@ -2204,7 +2195,7 @@
       <c r="XFC5" s="8"/>
     </row>
     <row r="6" spans="1:12 16381:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="85"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="26" t="s">
         <v>23</v>
       </c>
@@ -2237,7 +2228,7 @@
       <c r="XFC6" s="8"/>
     </row>
     <row r="7" spans="1:12 16381:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="85"/>
+      <c r="A7" s="91"/>
       <c r="B7" s="26" t="s">
         <v>26</v>
       </c>
@@ -2270,7 +2261,7 @@
       <c r="XFC7" s="8"/>
     </row>
     <row r="8" spans="1:12 16381:16383" s="34" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="85"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="29" t="s">
         <v>29</v>
       </c>
@@ -2302,7 +2293,7 @@
       <c r="XFC8" s="8"/>
     </row>
     <row r="9" spans="1:12 16381:16383" s="28" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="85"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="26" t="s">
         <v>32</v>
       </c>
@@ -2336,7 +2327,7 @@
       <c r="XFC9" s="8"/>
     </row>
     <row r="10" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="85"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="26" t="s">
         <v>36</v>
       </c>
@@ -2373,7 +2364,7 @@
       <c r="XFC10" s="8"/>
     </row>
     <row r="11" spans="1:12 16381:16383" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="85"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="26" t="s">
         <v>40</v>
       </c>
@@ -2407,7 +2398,7 @@
       <c r="XFC11" s="8"/>
     </row>
     <row r="12" spans="1:12 16381:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="85"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="19" t="s">
         <v>44</v>
       </c>
@@ -2441,7 +2432,7 @@
       <c r="XFC12" s="8"/>
     </row>
     <row r="13" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="26" t="s">
         <v>47</v>
       </c>
@@ -2475,7 +2466,7 @@
       <c r="XFC13" s="8"/>
     </row>
     <row r="14" spans="1:12 16381:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="85"/>
+      <c r="A14" s="91"/>
       <c r="B14" s="19" t="s">
         <v>50</v>
       </c>
@@ -2509,7 +2500,7 @@
       <c r="XFC14" s="8"/>
     </row>
     <row r="15" spans="1:12 16381:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="85"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="19" t="s">
         <v>53</v>
       </c>
@@ -2543,7 +2534,7 @@
       <c r="XFC15" s="8"/>
     </row>
     <row r="16" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="85"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="26" t="s">
         <v>56</v>
       </c>
@@ -2551,7 +2542,9 @@
         <v>57</v>
       </c>
       <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="21" t="s">
+        <v>372</v>
+      </c>
       <c r="F16" s="22" t="s">
         <v>42</v>
       </c>
@@ -2577,7 +2570,7 @@
       <c r="XFC16" s="8"/>
     </row>
     <row r="17" spans="1:11 16378:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="85"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="26" t="s">
         <v>59</v>
       </c>
@@ -2614,7 +2607,7 @@
       <c r="XFC17" s="8"/>
     </row>
     <row r="18" spans="1:11 16378:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="85"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="26" t="s">
         <v>62</v>
       </c>
@@ -2651,7 +2644,7 @@
       <c r="XFC18" s="8"/>
     </row>
     <row r="19" spans="1:11 16378:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="85"/>
+      <c r="A19" s="91"/>
       <c r="B19" s="26" t="s">
         <v>65</v>
       </c>
@@ -2688,7 +2681,7 @@
       <c r="XFC19" s="8"/>
     </row>
     <row r="20" spans="1:11 16378:16383" s="7" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="85"/>
+      <c r="A20" s="91"/>
       <c r="B20" s="36" t="s">
         <v>68</v>
       </c>
@@ -2721,7 +2714,7 @@
       <c r="XFC20" s="8"/>
     </row>
     <row r="21" spans="1:11 16378:16383" s="7" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="85"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="36" t="s">
         <v>71</v>
       </c>
@@ -2754,7 +2747,7 @@
       <c r="XFC21" s="8"/>
     </row>
     <row r="22" spans="1:11 16378:16383" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="85"/>
+      <c r="A22" s="91"/>
       <c r="B22" s="26" t="s">
         <v>74</v>
       </c>
@@ -2787,7 +2780,7 @@
       <c r="XFC22" s="8"/>
     </row>
     <row r="23" spans="1:11 16378:16383" s="5" customFormat="1" ht="40.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="85"/>
+      <c r="A23" s="91"/>
       <c r="B23" s="26" t="s">
         <v>78</v>
       </c>
@@ -2823,7 +2816,7 @@
       <c r="XFC23" s="8"/>
     </row>
     <row r="24" spans="1:11 16378:16383" s="5" customFormat="1" ht="52.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="85"/>
+      <c r="A24" s="91"/>
       <c r="B24" s="26" t="s">
         <v>81</v>
       </c>
@@ -2856,7 +2849,7 @@
       <c r="XFC24" s="8"/>
     </row>
     <row r="25" spans="1:11 16378:16383" s="5" customFormat="1" ht="40.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="85"/>
+      <c r="A25" s="91"/>
       <c r="B25" s="26" t="s">
         <v>84</v>
       </c>
@@ -2889,7 +2882,7 @@
       <c r="XFC25" s="8"/>
     </row>
     <row r="26" spans="1:11 16378:16383" s="5" customFormat="1" ht="40.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="85"/>
+      <c r="A26" s="91"/>
       <c r="B26" s="26" t="s">
         <v>87</v>
       </c>
@@ -2922,7 +2915,7 @@
       <c r="XFC26" s="8"/>
     </row>
     <row r="27" spans="1:11 16378:16383" s="5" customFormat="1" ht="40.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="85"/>
+      <c r="A27" s="91"/>
       <c r="B27" s="26" t="s">
         <v>90</v>
       </c>
@@ -2955,7 +2948,7 @@
       <c r="XFC27" s="8"/>
     </row>
     <row r="28" spans="1:11 16378:16383" s="5" customFormat="1" ht="40.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="85"/>
+      <c r="A28" s="91"/>
       <c r="B28" s="26" t="s">
         <v>93</v>
       </c>
@@ -2988,7 +2981,7 @@
       <c r="XFC28" s="8"/>
     </row>
     <row r="29" spans="1:11 16378:16383" s="5" customFormat="1" ht="40.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="85"/>
+      <c r="A29" s="91"/>
       <c r="B29" s="26" t="s">
         <v>96</v>
       </c>
@@ -3021,7 +3014,7 @@
       <c r="XFC29" s="8"/>
     </row>
     <row r="30" spans="1:11 16378:16383" s="7" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="85"/>
+      <c r="A30" s="91"/>
       <c r="B30" s="36" t="s">
         <v>99</v>
       </c>
@@ -3053,7 +3046,7 @@
       <c r="XFC30" s="8"/>
     </row>
     <row r="31" spans="1:11 16378:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="85"/>
+      <c r="A31" s="91"/>
       <c r="B31" s="19" t="s">
         <v>103</v>
       </c>
@@ -3086,7 +3079,7 @@
       <c r="XFC31" s="8"/>
     </row>
     <row r="32" spans="1:11 16378:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="85"/>
+      <c r="A32" s="91"/>
       <c r="B32" s="73" t="s">
         <v>107</v>
       </c>
@@ -3099,7 +3092,7 @@
         <v>108</v>
       </c>
       <c r="G32" s="72" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H32" s="24">
         <v>4</v>
@@ -3119,7 +3112,7 @@
       <c r="XFC32" s="8"/>
     </row>
     <row r="33" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="85"/>
+      <c r="A33" s="91"/>
       <c r="B33" s="73" t="s">
         <v>369</v>
       </c>
@@ -3132,7 +3125,7 @@
         <v>108</v>
       </c>
       <c r="G33" s="72" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H33" s="24">
         <v>2</v>
@@ -3150,27 +3143,27 @@
       <c r="XFC33" s="8"/>
     </row>
     <row r="34" spans="1:12 16381:16383" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="92"/>
-      <c r="B34" s="97" t="s">
+      <c r="A34" s="94"/>
+      <c r="B34" s="90" t="s">
         <v>368</v>
       </c>
-      <c r="C34" s="91"/>
+      <c r="C34" s="86"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="22"/>
       <c r="G34" s="20"/>
       <c r="H34" s="24"/>
       <c r="I34" s="25"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="96"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
       <c r="XFA34" s="8"/>
       <c r="XFB34" s="7"/>
       <c r="XFC34" s="8"/>
     </row>
     <row r="35" spans="1:12 16381:16383" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="94"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="91"/>
+      <c r="A35" s="88"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="86"/>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
       <c r="F35" s="22"/>
@@ -3189,7 +3182,7 @@
       <c r="XFC35" s="8"/>
     </row>
     <row r="36" spans="1:12 16381:16383" s="46" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="93"/>
+      <c r="A36" s="87"/>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
       <c r="D36" s="42"/>
@@ -3205,7 +3198,7 @@
       <c r="XFC36" s="8"/>
     </row>
     <row r="37" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="88" t="s">
+      <c r="A37" s="95" t="s">
         <v>110</v>
       </c>
       <c r="B37" s="49" t="s">
@@ -3245,7 +3238,7 @@
       <c r="XFC37" s="8"/>
     </row>
     <row r="38" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="88"/>
+      <c r="A38" s="95"/>
       <c r="B38" s="49" t="s">
         <v>117</v>
       </c>
@@ -3283,7 +3276,7 @@
       <c r="XFC38" s="8"/>
     </row>
     <row r="39" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="88"/>
+      <c r="A39" s="95"/>
       <c r="B39" s="49" t="s">
         <v>122</v>
       </c>
@@ -3321,7 +3314,7 @@
       <c r="XFC39" s="8"/>
     </row>
     <row r="40" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="88"/>
+      <c r="A40" s="95"/>
       <c r="B40" s="49" t="s">
         <v>127</v>
       </c>
@@ -3359,7 +3352,7 @@
       <c r="XFC40" s="8"/>
     </row>
     <row r="41" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="88"/>
+      <c r="A41" s="95"/>
       <c r="B41" s="49" t="s">
         <v>131</v>
       </c>
@@ -3397,7 +3390,7 @@
       <c r="XFC41" s="8"/>
     </row>
     <row r="42" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="88"/>
+      <c r="A42" s="95"/>
       <c r="B42" s="49" t="s">
         <v>136</v>
       </c>
@@ -3435,7 +3428,7 @@
       <c r="XFC42" s="8"/>
     </row>
     <row r="43" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="88"/>
+      <c r="A43" s="95"/>
       <c r="B43" s="49" t="s">
         <v>140</v>
       </c>
@@ -3473,7 +3466,7 @@
       <c r="XFC43" s="8"/>
     </row>
     <row r="44" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="88"/>
+      <c r="A44" s="95"/>
       <c r="B44" s="49" t="s">
         <v>144</v>
       </c>
@@ -3511,7 +3504,7 @@
       <c r="XFC44" s="8"/>
     </row>
     <row r="45" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="88"/>
+      <c r="A45" s="95"/>
       <c r="B45" s="49" t="s">
         <v>149</v>
       </c>
@@ -3549,7 +3542,7 @@
       <c r="XFC45" s="8"/>
     </row>
     <row r="46" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="88"/>
+      <c r="A46" s="95"/>
       <c r="B46" s="49" t="s">
         <v>154</v>
       </c>
@@ -3587,7 +3580,7 @@
       <c r="XFC46" s="8"/>
     </row>
     <row r="47" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="88"/>
+      <c r="A47" s="95"/>
       <c r="B47" s="49" t="s">
         <v>158</v>
       </c>
@@ -3625,7 +3618,7 @@
       <c r="XFC47" s="8"/>
     </row>
     <row r="48" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="88"/>
+      <c r="A48" s="95"/>
       <c r="B48" s="49" t="s">
         <v>163</v>
       </c>
@@ -3666,7 +3659,7 @@
       <c r="XFC48" s="8"/>
     </row>
     <row r="49" spans="1:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="88"/>
+      <c r="A49" s="95"/>
       <c r="B49" s="49" t="s">
         <v>168</v>
       </c>
@@ -3707,7 +3700,7 @@
       <c r="XFC49" s="8"/>
     </row>
     <row r="50" spans="1:16383" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="88"/>
+      <c r="A50" s="95"/>
       <c r="B50" s="75" t="s">
         <v>172</v>
       </c>
@@ -3745,7 +3738,7 @@
       <c r="XFC50" s="8"/>
     </row>
     <row r="51" spans="1:16383" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="88"/>
+      <c r="A51" s="95"/>
       <c r="B51" s="75" t="s">
         <v>176</v>
       </c>
@@ -3783,7 +3776,7 @@
       <c r="XFC51" s="8"/>
     </row>
     <row r="52" spans="1:16383" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="88"/>
+      <c r="A52" s="95"/>
       <c r="B52" s="49" t="s">
         <v>180</v>
       </c>
@@ -3821,7 +3814,7 @@
       <c r="XFC52" s="8"/>
     </row>
     <row r="53" spans="1:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="88"/>
+      <c r="A53" s="95"/>
       <c r="B53" s="49" t="s">
         <v>185</v>
       </c>
@@ -3857,7 +3850,7 @@
       <c r="XFC53" s="8"/>
     </row>
     <row r="54" spans="1:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="88"/>
+      <c r="A54" s="95"/>
       <c r="B54" s="49" t="s">
         <v>188</v>
       </c>
@@ -3893,7 +3886,7 @@
       <c r="XFC54" s="8"/>
     </row>
     <row r="55" spans="1:16383" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="88"/>
+      <c r="A55" s="95"/>
       <c r="B55" s="49" t="s">
         <v>191</v>
       </c>
@@ -3929,7 +3922,7 @@
       <c r="XFC55" s="8"/>
     </row>
     <row r="56" spans="1:16383" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="88"/>
+      <c r="A56" s="95"/>
       <c r="B56" s="49" t="s">
         <v>195</v>
       </c>
@@ -3965,7 +3958,7 @@
       <c r="XFC56" s="8"/>
     </row>
     <row r="57" spans="1:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="88"/>
+      <c r="A57" s="95"/>
       <c r="B57" s="49" t="s">
         <v>198</v>
       </c>
@@ -4001,7 +3994,7 @@
       <c r="XFC57" s="8"/>
     </row>
     <row r="58" spans="1:16383" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="88"/>
+      <c r="A58" s="95"/>
       <c r="B58" s="49"/>
       <c r="C58" s="50"/>
       <c r="D58" s="51"/>
@@ -4038,7 +4031,7 @@
       <c r="XFC59" s="8"/>
     </row>
     <row r="60" spans="1:16383" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="89" t="s">
+      <c r="A60" s="96" t="s">
         <v>201</v>
       </c>
       <c r="B60" s="29" t="s">
@@ -20442,7 +20435,7 @@
       <c r="XEZ60" s="8"/>
     </row>
     <row r="61" spans="1:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="89"/>
+      <c r="A61" s="96"/>
       <c r="B61" s="19" t="s">
         <v>206</v>
       </c>
@@ -20475,7 +20468,7 @@
       <c r="XFC61" s="8"/>
     </row>
     <row r="62" spans="1:16383" s="5" customFormat="1" ht="52.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="89"/>
+      <c r="A62" s="96"/>
       <c r="B62" s="19" t="s">
         <v>210</v>
       </c>
@@ -20508,7 +20501,7 @@
       <c r="XFC62" s="8"/>
     </row>
     <row r="63" spans="1:16383" s="5" customFormat="1" ht="40.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="89"/>
+      <c r="A63" s="96"/>
       <c r="B63" s="19" t="s">
         <v>213</v>
       </c>
@@ -20541,7 +20534,7 @@
       <c r="XFC63" s="8"/>
     </row>
     <row r="64" spans="1:16383" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="89"/>
+      <c r="A64" s="96"/>
       <c r="B64" s="29" t="s">
         <v>216</v>
       </c>
@@ -36941,7 +36934,7 @@
       <c r="XFB64" s="8"/>
     </row>
     <row r="65" spans="1:16383" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="89"/>
+      <c r="A65" s="96"/>
       <c r="B65" s="19" t="s">
         <v>219</v>
       </c>
@@ -36974,7 +36967,7 @@
       <c r="XFC65" s="8"/>
     </row>
     <row r="66" spans="1:16383" s="5" customFormat="1" ht="52.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="89"/>
+      <c r="A66" s="96"/>
       <c r="B66" s="19" t="s">
         <v>222</v>
       </c>
@@ -37007,7 +37000,7 @@
       <c r="XFC66" s="8"/>
     </row>
     <row r="67" spans="1:16383" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="89"/>
+      <c r="A67" s="96"/>
       <c r="B67" s="19" t="s">
         <v>225</v>
       </c>
@@ -37043,7 +37036,7 @@
       <c r="XFC67" s="8"/>
     </row>
     <row r="68" spans="1:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="89"/>
+      <c r="A68" s="96"/>
       <c r="B68" s="19" t="s">
         <v>228</v>
       </c>
@@ -37077,7 +37070,7 @@
       <c r="XFC68" s="8"/>
     </row>
     <row r="69" spans="1:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="89"/>
+      <c r="A69" s="96"/>
       <c r="B69" s="73" t="s">
         <v>346</v>
       </c>
@@ -37110,7 +37103,7 @@
       <c r="XFC69" s="8"/>
     </row>
     <row r="70" spans="1:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="89"/>
+      <c r="A70" s="96"/>
       <c r="B70" s="73" t="s">
         <v>347</v>
       </c>
@@ -37143,7 +37136,7 @@
       <c r="XFC70" s="8"/>
     </row>
     <row r="71" spans="1:16383" s="28" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="89"/>
+      <c r="A71" s="96"/>
       <c r="B71" s="19" t="s">
         <v>231</v>
       </c>
@@ -37177,7 +37170,7 @@
       <c r="XFC71" s="8"/>
     </row>
     <row r="72" spans="1:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="89"/>
+      <c r="A72" s="96"/>
       <c r="B72" s="26" t="s">
         <v>232</v>
       </c>
@@ -37214,7 +37207,7 @@
       <c r="XFC72" s="8"/>
     </row>
     <row r="73" spans="1:16383" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="89"/>
+      <c r="A73" s="96"/>
       <c r="B73" s="19" t="s">
         <v>233</v>
       </c>
@@ -37248,7 +37241,7 @@
       <c r="XFC73" s="8"/>
     </row>
     <row r="74" spans="1:16383" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="89"/>
+      <c r="A74" s="96"/>
       <c r="B74" s="29" t="s">
         <v>236</v>
       </c>
@@ -53648,7 +53641,7 @@
       <c r="XFB74" s="8"/>
     </row>
     <row r="75" spans="1:16383" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="89"/>
+      <c r="A75" s="96"/>
       <c r="B75" s="62"/>
       <c r="C75" s="63"/>
       <c r="D75" s="60"/>
@@ -70052,7 +70045,7 @@
       <c r="XFC76" s="8"/>
     </row>
     <row r="77" spans="1:16383" s="28" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="85" t="s">
+      <c r="A77" s="91" t="s">
         <v>239</v>
       </c>
       <c r="B77" s="26" t="s">
@@ -70074,7 +70067,7 @@
       <c r="XFC77" s="8"/>
     </row>
     <row r="78" spans="1:16383" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="85"/>
+      <c r="A78" s="91"/>
       <c r="B78" s="26" t="s">
         <v>241</v>
       </c>
@@ -70094,7 +70087,7 @@
       <c r="XFC78" s="8"/>
     </row>
     <row r="79" spans="1:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="85"/>
+      <c r="A79" s="91"/>
       <c r="B79" s="26" t="s">
         <v>87</v>
       </c>
@@ -70114,7 +70107,7 @@
       <c r="XFC79" s="8"/>
     </row>
     <row r="80" spans="1:16383" s="7" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="85"/>
+      <c r="A80" s="91"/>
       <c r="B80" s="26" t="s">
         <v>242</v>
       </c>
@@ -70133,7 +70126,7 @@
       <c r="XFC80" s="8"/>
     </row>
     <row r="81" spans="1:11 16378:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="85"/>
+      <c r="A81" s="91"/>
       <c r="B81" s="19" t="s">
         <v>44</v>
       </c>
@@ -70167,7 +70160,7 @@
       <c r="XFC81" s="8"/>
     </row>
     <row r="82" spans="1:11 16378:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="85"/>
+      <c r="A82" s="91"/>
       <c r="B82" s="29" t="s">
         <v>243</v>
       </c>
@@ -70201,7 +70194,7 @@
       <c r="XFC82" s="8"/>
     </row>
     <row r="83" spans="1:11 16378:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="85"/>
+      <c r="A83" s="91"/>
       <c r="B83" s="29" t="s">
         <v>246</v>
       </c>
@@ -70235,7 +70228,7 @@
       <c r="XFC83" s="8"/>
     </row>
     <row r="84" spans="1:11 16378:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="85"/>
+      <c r="A84" s="91"/>
       <c r="B84" s="19" t="s">
         <v>50</v>
       </c>
@@ -70269,9 +70262,9 @@
       <c r="XFC84" s="8"/>
     </row>
     <row r="85" spans="1:11 16378:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="85"/>
-      <c r="B85" s="95" t="s">
-        <v>370</v>
+      <c r="A85" s="91"/>
+      <c r="B85" s="85" t="s">
+        <v>62</v>
       </c>
       <c r="C85" s="20" t="s">
         <v>63</v>
@@ -70306,7 +70299,7 @@
       <c r="XFC85" s="8"/>
     </row>
     <row r="86" spans="1:11 16378:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="85"/>
+      <c r="A86" s="91"/>
       <c r="B86" s="26" t="s">
         <v>59</v>
       </c>
@@ -70343,7 +70336,7 @@
       <c r="XFC86" s="8"/>
     </row>
     <row r="87" spans="1:11 16378:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="85"/>
+      <c r="A87" s="91"/>
       <c r="B87" s="26" t="s">
         <v>249</v>
       </c>
@@ -70380,7 +70373,7 @@
       <c r="XFC87" s="8"/>
     </row>
     <row r="88" spans="1:11 16378:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="85"/>
+      <c r="A88" s="91"/>
       <c r="B88" s="26" t="s">
         <v>252</v>
       </c>
@@ -70417,7 +70410,7 @@
       <c r="XFC88" s="8"/>
     </row>
     <row r="89" spans="1:11 16378:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="85"/>
+      <c r="A89" s="91"/>
       <c r="B89" s="19" t="s">
         <v>255</v>
       </c>
@@ -70451,7 +70444,7 @@
       <c r="XFC89" s="8"/>
     </row>
     <row r="90" spans="1:11 16378:16383" s="28" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="85"/>
+      <c r="A90" s="91"/>
       <c r="B90" s="19" t="s">
         <v>258</v>
       </c>
@@ -70485,7 +70478,7 @@
       <c r="XFC90" s="8"/>
     </row>
     <row r="91" spans="1:11 16378:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="85"/>
+      <c r="A91" s="91"/>
       <c r="B91" s="19" t="s">
         <v>261</v>
       </c>
@@ -70519,7 +70512,7 @@
       <c r="XFC91" s="8"/>
     </row>
     <row r="92" spans="1:11 16378:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="85"/>
+      <c r="A92" s="91"/>
       <c r="B92" s="19" t="s">
         <v>264</v>
       </c>
@@ -70553,7 +70546,7 @@
       <c r="XFC92" s="8"/>
     </row>
     <row r="93" spans="1:11 16378:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="85"/>
+      <c r="A93" s="91"/>
       <c r="B93" s="19" t="s">
         <v>267</v>
       </c>
@@ -70587,7 +70580,7 @@
       <c r="XFC93" s="8"/>
     </row>
     <row r="94" spans="1:11 16378:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="85"/>
+      <c r="A94" s="91"/>
       <c r="B94" s="19" t="s">
         <v>270</v>
       </c>
@@ -70619,7 +70612,7 @@
       <c r="XFC94" s="8"/>
     </row>
     <row r="95" spans="1:11 16378:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="85"/>
+      <c r="A95" s="91"/>
       <c r="B95" s="19" t="s">
         <v>273</v>
       </c>
@@ -70653,7 +70646,7 @@
       <c r="XFC95" s="8"/>
     </row>
     <row r="96" spans="1:11 16378:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="85"/>
+      <c r="A96" s="91"/>
       <c r="B96" s="19" t="s">
         <v>276</v>
       </c>
@@ -70687,7 +70680,7 @@
       <c r="XFC96" s="8"/>
     </row>
     <row r="97" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="85"/>
+      <c r="A97" s="91"/>
       <c r="B97" s="19" t="s">
         <v>280</v>
       </c>
@@ -70721,7 +70714,7 @@
       <c r="XFC97" s="8"/>
     </row>
     <row r="98" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="85"/>
+      <c r="A98" s="91"/>
       <c r="B98" s="19" t="s">
         <v>283</v>
       </c>
@@ -70754,7 +70747,7 @@
       <c r="XFC98" s="8"/>
     </row>
     <row r="99" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="85"/>
+      <c r="A99" s="91"/>
       <c r="B99" s="19" t="s">
         <v>286</v>
       </c>
@@ -70787,7 +70780,7 @@
       <c r="XFC99" s="8"/>
     </row>
     <row r="100" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="85"/>
+      <c r="A100" s="91"/>
       <c r="B100" s="19" t="s">
         <v>289</v>
       </c>
@@ -70820,7 +70813,7 @@
       <c r="XFC100" s="8"/>
     </row>
     <row r="101" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="85"/>
+      <c r="A101" s="91"/>
       <c r="B101" s="73" t="s">
         <v>354</v>
       </c>
@@ -70851,7 +70844,7 @@
       <c r="XFC101" s="8"/>
     </row>
     <row r="102" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="85"/>
+      <c r="A102" s="91"/>
       <c r="B102" s="73" t="s">
         <v>292</v>
       </c>
@@ -70882,7 +70875,7 @@
       <c r="XFC102" s="8"/>
     </row>
     <row r="103" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="85"/>
+      <c r="A103" s="91"/>
       <c r="B103" s="19" t="s">
         <v>293</v>
       </c>
@@ -70902,7 +70895,7 @@
       <c r="XFC103" s="8"/>
     </row>
     <row r="104" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="85"/>
+      <c r="A104" s="91"/>
       <c r="B104" s="19" t="s">
         <v>294</v>
       </c>
@@ -70957,7 +70950,7 @@
       <c r="XFC106" s="8"/>
     </row>
     <row r="107" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="85" t="s">
+      <c r="A107" s="91" t="s">
         <v>295</v>
       </c>
       <c r="B107" s="19" t="s">
@@ -70993,7 +70986,7 @@
       <c r="XFC107" s="8"/>
     </row>
     <row r="108" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="85"/>
+      <c r="A108" s="91"/>
       <c r="B108" s="19" t="s">
         <v>300</v>
       </c>
@@ -71026,7 +71019,7 @@
       <c r="XFC108" s="8"/>
     </row>
     <row r="109" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="85"/>
+      <c r="A109" s="91"/>
       <c r="B109" s="19" t="s">
         <v>303</v>
       </c>
@@ -71059,7 +71052,7 @@
       <c r="XFC109" s="8"/>
     </row>
     <row r="110" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="85"/>
+      <c r="A110" s="91"/>
       <c r="B110" s="19" t="s">
         <v>306</v>
       </c>
@@ -71092,7 +71085,7 @@
       <c r="XFC110" s="8"/>
     </row>
     <row r="111" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="85"/>
+      <c r="A111" s="91"/>
       <c r="B111" s="26" t="s">
         <v>309</v>
       </c>
@@ -71125,7 +71118,7 @@
       <c r="XFC111" s="8"/>
     </row>
     <row r="112" spans="1:11 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="85"/>
+      <c r="A112" s="91"/>
       <c r="B112" s="26" t="s">
         <v>312</v>
       </c>
@@ -71158,7 +71151,7 @@
       <c r="XFC112" s="8"/>
     </row>
     <row r="113" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="85"/>
+      <c r="A113" s="91"/>
       <c r="B113" s="26" t="s">
         <v>315</v>
       </c>
@@ -71191,7 +71184,7 @@
       <c r="XFC113" s="8"/>
     </row>
     <row r="114" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="85"/>
+      <c r="A114" s="91"/>
       <c r="B114" s="83" t="s">
         <v>358</v>
       </c>
@@ -71222,7 +71215,7 @@
       <c r="XFC114" s="8"/>
     </row>
     <row r="115" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="85"/>
+      <c r="A115" s="91"/>
       <c r="B115" s="83" t="s">
         <v>359</v>
       </c>
@@ -71253,7 +71246,7 @@
       <c r="XFC115" s="8"/>
     </row>
     <row r="116" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="85"/>
+      <c r="A116" s="91"/>
       <c r="B116" s="83" t="s">
         <v>359</v>
       </c>
@@ -71284,7 +71277,7 @@
       <c r="XFC116" s="8"/>
     </row>
     <row r="117" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="85"/>
+      <c r="A117" s="91"/>
       <c r="B117" s="26" t="s">
         <v>318</v>
       </c>
@@ -71321,7 +71314,7 @@
       <c r="XFC117" s="8"/>
     </row>
     <row r="118" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="85"/>
+      <c r="A118" s="91"/>
       <c r="B118" s="19" t="s">
         <v>321</v>
       </c>
@@ -71355,7 +71348,7 @@
       <c r="XFC118" s="8"/>
     </row>
     <row r="119" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="85"/>
+      <c r="A119" s="91"/>
       <c r="B119" s="19" t="s">
         <v>325</v>
       </c>
@@ -71391,7 +71384,7 @@
       <c r="XFC119" s="8"/>
     </row>
     <row r="120" spans="1:12 16381:16383" s="5" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="85"/>
+      <c r="A120" s="91"/>
       <c r="B120" s="19" t="s">
         <v>329</v>
       </c>
@@ -71425,7 +71418,7 @@
       <c r="XFC120" s="8"/>
     </row>
     <row r="121" spans="1:12 16381:16383" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="85"/>
+      <c r="A121" s="91"/>
       <c r="B121" s="21"/>
       <c r="C121" s="21"/>
       <c r="D121" s="21"/>
@@ -71521,11 +71514,11 @@
       <c r="E125" s="21"/>
       <c r="F125" s="24"/>
       <c r="G125" s="21"/>
-      <c r="H125" s="86" t="s">
+      <c r="H125" s="92" t="s">
         <v>337</v>
       </c>
-      <c r="I125" s="86"/>
-      <c r="J125" s="86"/>
+      <c r="I125" s="92"/>
+      <c r="J125" s="92"/>
       <c r="K125" s="69">
         <f>K34+K58+K75+K105+K121+K123</f>
         <v>4093.42</v>

--- a/docs/pictures/sourcing/Nomenclature_KOSMOS4.0_projet_IUEM_29_01_2025.xlsx
+++ b/docs/pictures/sourcing/Nomenclature_KOSMOS4.0_projet_IUEM_29_01_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ofauvarq\Documents\GitHub\DocV4\docs\pictures\sourcing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21348B7-5471-43E6-94A9-4D2BD011969A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5F4AE2-5CA2-4852-ACA7-C716FFD547FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2040,8 +2040,8 @@
   <dimension ref="A1:XFC179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/docs/pictures/sourcing/Nomenclature_KOSMOS4.0_projet_IUEM_29_01_2025.xlsx
+++ b/docs/pictures/sourcing/Nomenclature_KOSMOS4.0_projet_IUEM_29_01_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ofauvarq\Documents\GitHub\DocV4\docs\pictures\sourcing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5F4AE2-5CA2-4852-ACA7-C716FFD547FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5EB9BA-8479-46F5-9BA9-7DC8AE676AF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2040,8 +2040,8 @@
   <dimension ref="A1:XFC179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
